--- a/sample/sampledata.xlsx
+++ b/sample/sampledata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="72" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="360" yWindow="72" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="成績表" sheetId="3" r:id="rId1"/>
@@ -102,17 +102,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -121,18 +136,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,8 +456,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -449,288 +467,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>77</v>
       </c>
     </row>
@@ -748,20 +766,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/sample/sampledata.xlsx
+++ b/sample/sampledata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="72" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="72" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="成績表" sheetId="3" r:id="rId1"/>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -88,6 +88,12 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -136,12 +142,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -151,6 +154,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,9 +468,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -467,288 +477,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>4</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>77</v>
       </c>
     </row>
@@ -766,65 +776,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>